--- a/biology/Botanique/Polygalaceae/Polygalaceae.xlsx
+++ b/biology/Botanique/Polygalaceae/Polygalaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Polygalaceae (Polygalacées) est constituée de plantes dicotylédones ; elle comprend 800 espèces réparties en 17 à 20 genres.
 Ce sont des arbres, des arbustes, des plantes herbacées et quelques rares lianes des régions tempérées à tropicales. En France, elle est représentée par des plantes herbacées du genre Polygala.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Polygala qui vient du grec πολυγαλα (polygala), nom classique de la plante, dérivé de πολύς, plusieurs, et γάλα, lait, car on pensait que les animaux femelles consommant ces plantes donneraient plus de lait.
 </t>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[1] cette famille fait partie de l’ordre des Polygalales.
-La classification phylogénétique APG (1998)[2] et la classification phylogénétique APG II (2003)[3] la situent dans l'ordre des Fabales et l'étendent en y incluant les Xanthophyllacées, famille qui disparaît donc de toutes les classifications phylogénétiques. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) cette famille fait partie de l’ordre des Polygalales.
+La classification phylogénétique APG (1998) et la classification phylogénétique APG II (2003) la situent dans l'ordre des Fabales et l'étendent en y incluant les Xanthophyllacées, famille qui disparaît donc de toutes les classifications phylogénétiques. 
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (18 février 2022)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (18 février 2022) :
 Acanthocladus Klotzsch ex Hassk.
 Ancylotropis B. Eriksen
 Asemeia Raf.
@@ -606,7 +624,7 @@
 Securidaca L.
 Triclisperma Raf.
 Xanthophyllum Roxb.
-Selon GBIF       (18 février 2022)[5] :
+Selon GBIF       (18 février 2022) :
 Acanthocladus Klotzsch ex Hassk. - 11 espèces
 Ancylotropis B.Eriksen - 2 espèces
 Anthallogea Rafinesque, 1834 - 1 espèce
@@ -660,7 +678,7 @@
 Securidaea Turcz.
 Tubistephanocolpites Salami, 1984 - 1 espèce
 Xanthophyllum Roxb. - 137 espèces
-Selon "The Plant List"[6]   17 octobre 2012
+Selon "The Plant List"   17 octobre 2012
 genre Acanthocladus Klotzsch ex Hassk. , (1864)
 genre Ancylotropis B.Eriksen , (1993)
 genre Atroxima Stapf , (1905)
@@ -684,7 +702,7 @@
 genre Securidaca L., (1753)
 genre Triclisperma Raf., (1814)
 genre Xanthophyllum Roxb., (1819)
-Selon Angiosperm Phylogeny Website                        (28 mai 2010)[7] :
+Selon Angiosperm Phylogeny Website                        (28 mai 2010) :
 genre Atroxima
 genre Badiera
 genre Balgoya
@@ -704,7 +722,7 @@
 genre Salomonia
 genre Securidaca
 genre Xanthophyllum
-Selon NCBI  (28 mai 2010)[8] :
+Selon NCBI  (28 mai 2010) :
 genre Acanthocladus
 genre Atroxima
 genre Badiera
@@ -725,7 +743,7 @@
 genre Salomonia
 genre Securidaca
 genre Xanthophyllum
-Selon DELTA Angio           (28 mai 2010)[9] :
+Selon DELTA Angio           (28 mai 2010) :
 genre Atroxima
 genre Balgoya
 genre Barnhartia
@@ -743,7 +761,7 @@
 genre Polygala
 genre Salomonia
 genre Securidaca
-Selon ITIS      (28 mai 2010)[10] :
+Selon ITIS      (28 mai 2010) :
 genre Monnina Ruiz &amp; Pavón
 genre Polygala L.
 genre Salomonia Lour.
